--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H2">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I2">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J2">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N2">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O2">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P2">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q2">
-        <v>3024.647875403261</v>
+        <v>2136.804058489443</v>
       </c>
       <c r="R2">
-        <v>27221.83087862935</v>
+        <v>19231.23652640499</v>
       </c>
       <c r="S2">
-        <v>0.003483946615285979</v>
+        <v>0.002687685818319185</v>
       </c>
       <c r="T2">
-        <v>0.003528480182098695</v>
+        <v>0.002703938150853488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H3">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I3">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J3">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P3">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q3">
-        <v>4.455399506337445</v>
+        <v>3.807690710206333</v>
       </c>
       <c r="R3">
-        <v>40.098595557037</v>
+        <v>34.26921639185701</v>
       </c>
       <c r="S3">
-        <v>5.131960700642432E-06</v>
+        <v>4.789337740963407E-06</v>
       </c>
       <c r="T3">
-        <v>5.197560016584744E-06</v>
+        <v>4.818298681656208E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H4">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I4">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J4">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N4">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O4">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P4">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q4">
-        <v>839.4364117248174</v>
+        <v>808.6514691952821</v>
       </c>
       <c r="R4">
-        <v>7554.927705523357</v>
+        <v>7277.863222757539</v>
       </c>
       <c r="S4">
-        <v>0.0009669064849363893</v>
+        <v>0.001017126992568313</v>
       </c>
       <c r="T4">
-        <v>0.0009792659724094856</v>
+        <v>0.001023277520282588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H5">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I5">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J5">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N5">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O5">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P5">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q5">
-        <v>66.87121904558234</v>
+        <v>38.0123150338835</v>
       </c>
       <c r="R5">
-        <v>401.2273142734941</v>
+        <v>228.073890203301</v>
       </c>
       <c r="S5">
-        <v>7.702574542593405E-05</v>
+        <v>4.781213309294854E-05</v>
       </c>
       <c r="T5">
-        <v>5.20068849609278E-05</v>
+        <v>3.206750081241699E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H6">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I6">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J6">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N6">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O6">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P6">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q6">
-        <v>1192.775222470559</v>
+        <v>1097.268864241241</v>
       </c>
       <c r="R6">
-        <v>10734.97700223503</v>
+        <v>9875.41977817117</v>
       </c>
       <c r="S6">
-        <v>0.001373900490340299</v>
+        <v>0.00138015179893901</v>
       </c>
       <c r="T6">
-        <v>0.001391462380930741</v>
+        <v>0.001388497523662967</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J7">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N7">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O7">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P7">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q7">
-        <v>495676.4205557709</v>
+        <v>409744.4933391673</v>
       </c>
       <c r="R7">
-        <v>4461087.785001938</v>
+        <v>3687700.440052507</v>
       </c>
       <c r="S7">
-        <v>0.5709458617367508</v>
+        <v>0.5153792457042455</v>
       </c>
       <c r="T7">
-        <v>0.5782439803613413</v>
+        <v>0.5184957241353823</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J8">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P8">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q8">
         <v>730.1466386902486</v>
@@ -948,10 +948,10 @@
         <v>6571.319748212238</v>
       </c>
       <c r="S8">
-        <v>0.0008410208445134048</v>
+        <v>0.0009183831144014547</v>
       </c>
       <c r="T8">
-        <v>0.0008517711980939376</v>
+        <v>0.0009239365416909866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J9">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N9">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O9">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P9">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q9">
-        <v>137566.0417305478</v>
+        <v>155063.5797498562</v>
       </c>
       <c r="R9">
-        <v>1238094.37557493</v>
+        <v>1395572.217748706</v>
       </c>
       <c r="S9">
-        <v>0.1584557162382192</v>
+        <v>0.1950399628715201</v>
       </c>
       <c r="T9">
-        <v>0.1604811773044108</v>
+        <v>0.1962193620083018</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J10">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N10">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O10">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P10">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q10">
-        <v>10958.79185285193</v>
+        <v>7289.080485563089</v>
       </c>
       <c r="R10">
-        <v>65752.75111711156</v>
+        <v>43734.48291337854</v>
       </c>
       <c r="S10">
-        <v>0.01262290598976805</v>
+        <v>0.009168252078051647</v>
       </c>
       <c r="T10">
-        <v>0.008522838903438145</v>
+        <v>0.00614912809662377</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J11">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N11">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O11">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P11">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q11">
-        <v>195470.8703812321</v>
+        <v>210407.6286494905</v>
       </c>
       <c r="R11">
-        <v>1759237.833431089</v>
+        <v>1893668.657845414</v>
       </c>
       <c r="S11">
-        <v>0.225153507219713</v>
+        <v>0.2646520617277267</v>
       </c>
       <c r="T11">
-        <v>0.2280315331667505</v>
+        <v>0.2662524025427769</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H12">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I12">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J12">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N12">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O12">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P12">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q12">
-        <v>299.4306980751436</v>
+        <v>197.6411253236333</v>
       </c>
       <c r="R12">
-        <v>2694.876282676292</v>
+        <v>1778.7701279127</v>
       </c>
       <c r="S12">
-        <v>0.0003448998395995202</v>
+        <v>0.0002485942721507605</v>
       </c>
       <c r="T12">
-        <v>0.0003493085237002207</v>
+        <v>0.0002500975121312593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H13">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I13">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J13">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.869893</v>
       </c>
       <c r="O13">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P13">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q13">
-        <v>0.4410706433747778</v>
+        <v>0.3521877796233334</v>
       </c>
       <c r="R13">
-        <v>3.969635790373001</v>
+        <v>3.169690016610001</v>
       </c>
       <c r="S13">
-        <v>5.080480896913299E-07</v>
+        <v>4.429840428832338E-07</v>
       </c>
       <c r="T13">
-        <v>5.145422171980697E-07</v>
+        <v>4.456627503137142E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H14">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I14">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J14">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N14">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O14">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P14">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q14">
-        <v>83.10158441796935</v>
+        <v>74.79524654186001</v>
       </c>
       <c r="R14">
-        <v>747.9142597617241</v>
+        <v>673.1572188767401</v>
       </c>
       <c r="S14">
-        <v>9.572072376169935E-05</v>
+        <v>9.407793972010437E-05</v>
       </c>
       <c r="T14">
-        <v>9.694427444077692E-05</v>
+        <v>9.46468253949298E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H15">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I15">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J15">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N15">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O15">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P15">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q15">
-        <v>6.620041943654334</v>
+        <v>3.515903430455</v>
       </c>
       <c r="R15">
-        <v>39.72025166192601</v>
+        <v>21.09542058273</v>
       </c>
       <c r="S15">
-        <v>7.625308357446647E-06</v>
+        <v>4.422325833325987E-06</v>
       </c>
       <c r="T15">
-        <v>5.148519269036599E-06</v>
+        <v>2.966044978107632E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H16">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I16">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J16">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N16">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O16">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P16">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q16">
-        <v>118.0810237170092</v>
+        <v>101.49056589893</v>
       </c>
       <c r="R16">
-        <v>1062.729213453083</v>
+        <v>913.4150930903701</v>
       </c>
       <c r="S16">
-        <v>0.0001360118598445214</v>
+        <v>0.0001276554832325495</v>
       </c>
       <c r="T16">
-        <v>0.0001377504321926544</v>
+        <v>0.0001284274110185956</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H17">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I17">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J17">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N17">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O17">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P17">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q17">
-        <v>12766.46906801501</v>
+        <v>3640.368532220868</v>
       </c>
       <c r="R17">
-        <v>76598.8144080901</v>
+        <v>21842.21119332521</v>
       </c>
       <c r="S17">
-        <v>0.01470508255204222</v>
+        <v>0.004578878834787552</v>
       </c>
       <c r="T17">
-        <v>0.009928700233876799</v>
+        <v>0.003071044759058536</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H18">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I18">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J18">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.869893</v>
       </c>
       <c r="O18">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P18">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q18">
-        <v>18.80540225718766</v>
+        <v>6.486976373333833</v>
       </c>
       <c r="R18">
-        <v>112.832413543126</v>
+        <v>38.921858240003</v>
       </c>
       <c r="S18">
-        <v>2.166103964557699E-05</v>
+        <v>8.159360392972175E-06</v>
       </c>
       <c r="T18">
-        <v>1.462528133615863E-05</v>
+        <v>5.47246648715255E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H19">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I19">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J19">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N19">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O19">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P19">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q19">
-        <v>3543.103007791148</v>
+        <v>1377.659945139617</v>
       </c>
       <c r="R19">
-        <v>21258.61804674688</v>
+        <v>8265.959670837701</v>
       </c>
       <c r="S19">
-        <v>0.004081130181131508</v>
+        <v>0.001732829494734146</v>
       </c>
       <c r="T19">
-        <v>0.002755531500110801</v>
+        <v>0.001162205231926007</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H20">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I20">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J20">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N20">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O20">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P20">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q20">
-        <v>282.250822129853</v>
+        <v>64.75972138691975</v>
       </c>
       <c r="R20">
-        <v>1129.003288519412</v>
+        <v>259.038885547679</v>
       </c>
       <c r="S20">
-        <v>0.000325111165639366</v>
+        <v>8.145519196222816E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001463408448471553</v>
+        <v>3.642122149687243E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H21">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I21">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J21">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N21">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O21">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P21">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q21">
-        <v>5034.479585738524</v>
+        <v>1869.363280596408</v>
       </c>
       <c r="R21">
-        <v>30206.87751443114</v>
+        <v>11216.17968357845</v>
       </c>
       <c r="S21">
-        <v>0.005798975231165244</v>
+        <v>0.002351297096514016</v>
       </c>
       <c r="T21">
-        <v>0.003915400442680276</v>
+        <v>0.001577010199610131</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H22">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I22">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J22">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N22">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O22">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P22">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q22">
-        <v>285.392754650068</v>
+        <v>198.2743328249378</v>
       </c>
       <c r="R22">
-        <v>2568.534791850612</v>
+        <v>1784.46899542444</v>
       </c>
       <c r="S22">
-        <v>0.0003287302068038853</v>
+        <v>0.0002493907245978381</v>
       </c>
       <c r="T22">
-        <v>0.0003329322024842517</v>
+        <v>0.0002508987806955815</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H23">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I23">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J23">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.869893</v>
       </c>
       <c r="O23">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P23">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q23">
-        <v>0.420392320217</v>
+        <v>0.3533161274991111</v>
       </c>
       <c r="R23">
-        <v>3.783530881953001</v>
+        <v>3.179845147492</v>
       </c>
       <c r="S23">
-        <v>4.842297224158583E-07</v>
+        <v>4.444032860617601E-07</v>
       </c>
       <c r="T23">
-        <v>4.904193915116173E-07</v>
+        <v>4.470905756010298E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H24">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I24">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J24">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N24">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O24">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P24">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q24">
-        <v>79.20560665719601</v>
+        <v>75.03487739345867</v>
       </c>
       <c r="R24">
-        <v>712.8504599147641</v>
+        <v>675.313896541128</v>
       </c>
       <c r="S24">
-        <v>9.123313410101329E-05</v>
+        <v>9.43793489386589E-05</v>
       </c>
       <c r="T24">
-        <v>9.239932214051844E-05</v>
+        <v>9.495005722340974E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H25">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I25">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J25">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N25">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O25">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P25">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q25">
-        <v>6.309680397981001</v>
+        <v>3.527167768392667</v>
       </c>
       <c r="R25">
-        <v>37.85808238788601</v>
+        <v>21.163006610356</v>
       </c>
       <c r="S25">
-        <v>7.267817799502155E-06</v>
+        <v>4.43649418966523E-06</v>
       </c>
       <c r="T25">
-        <v>4.907145813722042E-06</v>
+        <v>2.975547666003528E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H26">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I26">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J26">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N26">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O26">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P26">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q26">
-        <v>112.545135976807</v>
+        <v>101.8157238716627</v>
       </c>
       <c r="R26">
-        <v>1012.906223791263</v>
+        <v>916.3415148449641</v>
       </c>
       <c r="S26">
-        <v>0.0001296353366426233</v>
+        <v>0.0001280644690113601</v>
       </c>
       <c r="T26">
-        <v>0.0001312924010477819</v>
+        <v>0.0001288388699186445</v>
       </c>
     </row>
   </sheetData>
